--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H2">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I2">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J2">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>1.648813041152333</v>
+        <v>1.211374803584444</v>
       </c>
       <c r="R2">
-        <v>14.839317370371</v>
+        <v>10.90237323226</v>
       </c>
       <c r="S2">
-        <v>0.001207868193392722</v>
+        <v>0.0007446067302942645</v>
       </c>
       <c r="T2">
-        <v>0.001207868193392722</v>
+        <v>0.0007446067302942646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H3">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I3">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J3">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>17.750950148113</v>
+        <v>12.38941582490033</v>
       </c>
       <c r="R3">
-        <v>159.758551333017</v>
+        <v>111.504742424103</v>
       </c>
       <c r="S3">
-        <v>0.01300378366210691</v>
+        <v>0.007615514521465748</v>
       </c>
       <c r="T3">
-        <v>0.01300378366210691</v>
+        <v>0.007615514521465748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H4">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I4">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J4">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>26.208878583524</v>
+        <v>31.50269732099389</v>
       </c>
       <c r="R4">
-        <v>235.879907251716</v>
+        <v>283.5242758889449</v>
       </c>
       <c r="S4">
-        <v>0.01919979405512572</v>
+        <v>0.01936404849946176</v>
       </c>
       <c r="T4">
-        <v>0.01919979405512572</v>
+        <v>0.01936404849946176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H5">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I5">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J5">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>9.290384348669667</v>
+        <v>8.236137713068777</v>
       </c>
       <c r="R5">
-        <v>83.61345913802701</v>
+        <v>74.125239417619</v>
       </c>
       <c r="S5">
-        <v>0.00680584121975955</v>
+        <v>0.005062581419586145</v>
       </c>
       <c r="T5">
-        <v>0.006805841219759551</v>
+        <v>0.005062581419586145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H6">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I6">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J6">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>38.84978020794</v>
+        <v>22.46011037911633</v>
       </c>
       <c r="R6">
-        <v>349.6480218714601</v>
+        <v>202.140993412047</v>
       </c>
       <c r="S6">
-        <v>0.02846011807419552</v>
+        <v>0.01380575962283193</v>
       </c>
       <c r="T6">
-        <v>0.02846011807419553</v>
+        <v>0.01380575962283193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>21.87929358592033</v>
+        <v>23.03091503691333</v>
       </c>
       <c r="R7">
-        <v>196.913642273283</v>
+        <v>207.27823533222</v>
       </c>
       <c r="S7">
-        <v>0.01602807726330505</v>
+        <v>0.01415662129555397</v>
       </c>
       <c r="T7">
-        <v>0.01602807726330505</v>
+        <v>0.01415662129555397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>235.550204920849</v>
@@ -948,10 +948,10 @@
         <v>2119.951844287641</v>
       </c>
       <c r="S8">
-        <v>0.1725566170147396</v>
+        <v>0.1447877794612152</v>
       </c>
       <c r="T8">
-        <v>0.1725566170147396</v>
+        <v>0.1447877794612152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>30.967833</v>
       </c>
       <c r="I9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>347.7845788300519</v>
+        <v>598.9359719936016</v>
       </c>
       <c r="R9">
-        <v>3130.061209470467</v>
+        <v>5390.423747942415</v>
       </c>
       <c r="S9">
-        <v>0.2547759633364597</v>
+        <v>0.3681534025985578</v>
       </c>
       <c r="T9">
-        <v>0.2547759633364597</v>
+        <v>0.3681534025985579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.967833</v>
       </c>
       <c r="I10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>123.2808339194857</v>
+        <v>156.5871993876103</v>
       </c>
       <c r="R10">
-        <v>1109.527505275371</v>
+        <v>1409.284794488493</v>
       </c>
       <c r="S10">
-        <v>0.09031163293214145</v>
+        <v>0.09625087313764384</v>
       </c>
       <c r="T10">
-        <v>0.09031163293214144</v>
+        <v>0.09625087313764386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>30.967833</v>
       </c>
       <c r="I11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>515.52585144762</v>
+        <v>427.016388594601</v>
       </c>
       <c r="R11">
-        <v>4639.73266302858</v>
+        <v>3843.147497351409</v>
       </c>
       <c r="S11">
-        <v>0.3776579049860582</v>
+        <v>0.2624780340095014</v>
       </c>
       <c r="T11">
-        <v>0.3776579049860582</v>
+        <v>0.2624780340095014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H12">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I12">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J12">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>0.4799792381511112</v>
+        <v>1.757056040424445</v>
       </c>
       <c r="R12">
-        <v>4.31981314336</v>
+        <v>15.81350436382</v>
       </c>
       <c r="S12">
-        <v>0.000351617582334512</v>
+        <v>0.001080025562140587</v>
       </c>
       <c r="T12">
-        <v>0.000351617582334512</v>
+        <v>0.001080025562140587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H13">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I13">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J13">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>5.167406683413334</v>
+        <v>17.97040672140233</v>
       </c>
       <c r="R13">
-        <v>46.50666015072</v>
+        <v>161.733660492621</v>
       </c>
       <c r="S13">
-        <v>0.00378547841352456</v>
+        <v>0.01104603278133867</v>
       </c>
       <c r="T13">
-        <v>0.003785478413524561</v>
+        <v>0.01104603278133867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H14">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I14">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J14">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>7.629559726506667</v>
+        <v>45.69354130012388</v>
       </c>
       <c r="R14">
-        <v>68.66603753855999</v>
+        <v>411.241871701115</v>
       </c>
       <c r="S14">
-        <v>0.005589173722690164</v>
+        <v>0.02808686319244497</v>
       </c>
       <c r="T14">
-        <v>0.005589173722690164</v>
+        <v>0.02808686319244497</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H15">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I15">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J15">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>2.704485888035556</v>
+        <v>11.94622463311478</v>
       </c>
       <c r="R15">
-        <v>24.34037299232</v>
+        <v>107.516021698033</v>
       </c>
       <c r="S15">
-        <v>0.001981220673360633</v>
+        <v>0.007343094174572132</v>
       </c>
       <c r="T15">
-        <v>0.001981220673360633</v>
+        <v>0.007343094174572134</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H16">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I16">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J16">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>11.3094010304</v>
+        <v>32.57759076171433</v>
       </c>
       <c r="R16">
-        <v>101.7846092736</v>
+        <v>293.198316855429</v>
       </c>
       <c r="S16">
-        <v>0.008284908870805668</v>
+        <v>0.02002476299339156</v>
       </c>
       <c r="T16">
-        <v>0.008284908870805669</v>
+        <v>0.02002476299339156</v>
       </c>
     </row>
   </sheetData>
